--- a/20000-40000.xlsx
+++ b/20000-40000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
   <si>
     <t>CVR</t>
   </si>
@@ -31,6 +31,12 @@
     <t>Opsagt dato:</t>
   </si>
   <si>
+    <t>Årsag</t>
+  </si>
+  <si>
+    <t>Ny leverandør</t>
+  </si>
+  <si>
     <t>TCV_range</t>
   </si>
   <si>
@@ -182,6 +188,45 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Ikke oplyst</t>
+  </si>
+  <si>
+    <t>Ikke flere medarbejdere i virksomheden</t>
+  </si>
+  <si>
+    <t>Pris</t>
+  </si>
+  <si>
+    <t>Covid-19</t>
+  </si>
+  <si>
+    <t>Bruger ikke produktet</t>
+  </si>
+  <si>
+    <t>Virksomheden lukker</t>
+  </si>
+  <si>
+    <t>Anden årsag (angiv hvilken i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Systemet (uddyb i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Strategisk beslutning</t>
+  </si>
+  <si>
+    <t>Utilfredshed (Service - uddyb i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Fusionerer med anden virksomhed</t>
+  </si>
+  <si>
+    <t>Outsourcing af lønnen (anden leverandør)</t>
+  </si>
+  <si>
+    <t>DataLøn</t>
   </si>
   <si>
     <t>20000-40000</t>
@@ -546,13 +591,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,10 +616,16 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -583,18 +634,21 @@
         <v>28895.99</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2">
         <v>44202</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -603,18 +657,21 @@
         <v>36113.01</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2">
         <v>44218</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2021</v>
@@ -623,18 +680,24 @@
         <v>39790.38</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2">
         <v>44228</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -643,18 +706,24 @@
         <v>20969.32</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2">
         <v>44267</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2021</v>
@@ -663,18 +732,21 @@
         <v>26744.54</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2">
         <v>44260</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2021</v>
@@ -683,18 +755,21 @@
         <v>23323</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2">
         <v>44281</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>2021</v>
@@ -703,18 +778,21 @@
         <v>24096</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2">
         <v>44350</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>2021</v>
@@ -723,18 +801,21 @@
         <v>32894</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2">
         <v>44363</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>2021</v>
@@ -743,18 +824,21 @@
         <v>32673</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2">
         <v>44375</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>2021</v>
@@ -763,18 +847,21 @@
         <v>21226.54</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2">
         <v>44385</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>2021</v>
@@ -783,18 +870,21 @@
         <v>27360</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2">
         <v>44407</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>2021</v>
@@ -803,18 +893,24 @@
         <v>21660</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2">
         <v>44440</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>2021</v>
@@ -823,18 +919,21 @@
         <v>25140.84</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2">
         <v>44463</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>2021</v>
@@ -843,18 +942,21 @@
         <v>30000</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2">
         <v>44454</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>2021</v>
@@ -863,18 +965,21 @@
         <v>36348</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2">
         <v>44463</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>2021</v>
@@ -883,18 +988,21 @@
         <v>36000</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2">
         <v>44438</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>2021</v>
@@ -903,18 +1011,21 @@
         <v>30320</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2">
         <v>44483</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="H18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>2021</v>
@@ -923,18 +1034,21 @@
         <v>35463.96</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2">
         <v>44498</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>2021</v>
@@ -943,18 +1057,24 @@
         <v>21375.84</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E20" s="2">
         <v>44505</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>2021</v>
@@ -963,18 +1083,21 @@
         <v>33761</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2">
         <v>44545</v>
       </c>
-      <c r="F21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>2021</v>
@@ -983,18 +1106,21 @@
         <v>33034</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2">
         <v>44498</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="H22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>2021</v>
@@ -1003,18 +1129,21 @@
         <v>22438</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2">
         <v>44546</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="H23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>2021</v>
@@ -1023,18 +1152,21 @@
         <v>37004</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2">
         <v>44550</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="H24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>2022</v>
@@ -1043,18 +1175,21 @@
         <v>32379.56</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E25" s="2">
         <v>44599</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="H25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>2022</v>
@@ -1063,18 +1198,21 @@
         <v>27046.56</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2">
         <v>44601</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="H26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>2022</v>
@@ -1083,18 +1221,21 @@
         <v>26775.27</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2">
         <v>44609</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="H27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>2022</v>
@@ -1103,18 +1244,21 @@
         <v>21714.47</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2">
         <v>44615</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="H28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>2022</v>
@@ -1123,18 +1267,21 @@
         <v>22255.93</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2">
         <v>44620</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="H29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>2022</v>
@@ -1143,18 +1290,21 @@
         <v>36000</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E30" s="2">
         <v>44732</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="H30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>2022</v>
@@ -1163,18 +1313,21 @@
         <v>36000</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E31" s="2">
         <v>44742</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="H31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>2022</v>
@@ -1183,18 +1336,24 @@
         <v>33339.71</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2">
         <v>44774</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="G32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>2022</v>
@@ -1203,18 +1362,21 @@
         <v>24581</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2">
         <v>44810</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="H33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>2022</v>
@@ -1223,18 +1385,21 @@
         <v>31068</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E34" s="2">
         <v>44831</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="H34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>2022</v>
@@ -1243,18 +1408,21 @@
         <v>30806</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E35" s="2">
         <v>44868</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="H35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>2022</v>
@@ -1263,18 +1431,21 @@
         <v>20172</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2">
         <v>44873</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="H36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>2022</v>
@@ -1283,18 +1454,21 @@
         <v>24000</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E37" s="2">
         <v>44895</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="H37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>2023</v>
@@ -1303,18 +1477,21 @@
         <v>32723</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2">
         <v>44956</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>68</v>
+      </c>
+      <c r="H38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>2023</v>
@@ -1323,18 +1500,21 @@
         <v>32046.79</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2">
         <v>45043</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="H39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>2023</v>
@@ -1343,13 +1523,16 @@
         <v>30453</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E40" s="2">
         <v>45070</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="H40" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/20000-40000.xlsx
+++ b/20000-40000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="88">
   <si>
     <t>CVR</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Ny leverandør</t>
   </si>
   <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>TCV_range</t>
   </si>
   <si>
@@ -157,6 +160,18 @@
     <t>34725101</t>
   </si>
   <si>
+    <t>10750113</t>
+  </si>
+  <si>
+    <t>68964415</t>
+  </si>
+  <si>
+    <t>11967086</t>
+  </si>
+  <si>
+    <t>20039701</t>
+  </si>
+  <si>
     <t>Visma Løn og HR</t>
   </si>
   <si>
@@ -190,6 +205,12 @@
     <t>Time</t>
   </si>
   <si>
+    <t>Acubiz</t>
+  </si>
+  <si>
+    <t>Automatisk Import</t>
+  </si>
+  <si>
     <t>Ikke oplyst</t>
   </si>
   <si>
@@ -220,13 +241,40 @@
     <t>Utilfredshed (Service - uddyb i bemærkninger)</t>
   </si>
   <si>
-    <t>Fusionerer med anden virksomhed</t>
-  </si>
-  <si>
-    <t>Outsourcing af lønnen (anden leverandør)</t>
-  </si>
-  <si>
     <t>DataLøn</t>
+  </si>
+  <si>
+    <t>2021Q1</t>
+  </si>
+  <si>
+    <t>2021Q2</t>
+  </si>
+  <si>
+    <t>2021Q3</t>
+  </si>
+  <si>
+    <t>2021Q4</t>
+  </si>
+  <si>
+    <t>2022Q1</t>
+  </si>
+  <si>
+    <t>2022Q2</t>
+  </si>
+  <si>
+    <t>2022Q3</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
   </si>
   <si>
     <t>20000-40000</t>
@@ -591,13 +639,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,10 +670,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -634,21 +685,24 @@
         <v>28895.99</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2">
         <v>44202</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -657,21 +711,24 @@
         <v>36113.01</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2">
         <v>44218</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2021</v>
@@ -680,24 +737,27 @@
         <v>39790.38</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2">
         <v>44228</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -706,24 +766,27 @@
         <v>20969.32</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2">
         <v>44267</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>2021</v>
@@ -732,21 +795,24 @@
         <v>26744.54</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2">
         <v>44260</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>2021</v>
@@ -755,21 +821,24 @@
         <v>23323</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2">
         <v>44281</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>2021</v>
@@ -778,21 +847,24 @@
         <v>24096</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2">
         <v>44350</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>2021</v>
@@ -801,21 +873,24 @@
         <v>32894</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2">
         <v>44363</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>2021</v>
@@ -824,21 +899,24 @@
         <v>32673</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2">
         <v>44375</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>2021</v>
@@ -847,21 +925,24 @@
         <v>21226.54</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2">
         <v>44385</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>2021</v>
@@ -870,21 +951,24 @@
         <v>27360</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2">
         <v>44407</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>2021</v>
@@ -893,24 +977,27 @@
         <v>21660</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2">
         <v>44440</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>2021</v>
@@ -919,21 +1006,24 @@
         <v>25140.84</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2">
         <v>44463</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>2021</v>
@@ -942,21 +1032,24 @@
         <v>30000</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2">
         <v>44454</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>2021</v>
@@ -965,21 +1058,24 @@
         <v>36348</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2">
         <v>44463</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>2021</v>
@@ -988,21 +1084,24 @@
         <v>36000</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2">
         <v>44438</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>2021</v>
@@ -1011,21 +1110,24 @@
         <v>30320</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2">
         <v>44483</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>2021</v>
@@ -1034,21 +1136,24 @@
         <v>35463.96</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E19" s="2">
         <v>44498</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>2021</v>
@@ -1057,24 +1162,27 @@
         <v>21375.84</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2">
         <v>44505</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>2021</v>
@@ -1083,21 +1191,24 @@
         <v>33761</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E21" s="2">
         <v>44545</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>2021</v>
@@ -1106,21 +1217,24 @@
         <v>33034</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E22" s="2">
         <v>44498</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>2021</v>
@@ -1129,21 +1243,24 @@
         <v>22438</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E23" s="2">
         <v>44546</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>2021</v>
@@ -1152,21 +1269,24 @@
         <v>37004</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E24" s="2">
         <v>44550</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>2022</v>
@@ -1175,21 +1295,24 @@
         <v>32379.56</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E25" s="2">
         <v>44599</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>2022</v>
@@ -1198,21 +1321,24 @@
         <v>27046.56</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E26" s="2">
         <v>44601</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>2022</v>
@@ -1221,21 +1347,24 @@
         <v>26775.27</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2">
         <v>44609</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>2022</v>
@@ -1244,21 +1373,24 @@
         <v>21714.47</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E28" s="2">
         <v>44615</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>2022</v>
@@ -1267,21 +1399,24 @@
         <v>22255.93</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E29" s="2">
         <v>44620</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>2022</v>
@@ -1290,21 +1425,24 @@
         <v>36000</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E30" s="2">
         <v>44732</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>2022</v>
@@ -1313,21 +1451,24 @@
         <v>36000</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E31" s="2">
         <v>44742</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>2022</v>
@@ -1336,24 +1477,27 @@
         <v>33339.71</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E32" s="2">
         <v>44774</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G32" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>2022</v>
@@ -1362,21 +1506,24 @@
         <v>24581</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E33" s="2">
         <v>44810</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>2022</v>
@@ -1385,21 +1532,24 @@
         <v>31068</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E34" s="2">
         <v>44831</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>2022</v>
@@ -1408,21 +1558,24 @@
         <v>30806</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E35" s="2">
         <v>44868</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>2022</v>
@@ -1431,21 +1584,24 @@
         <v>20172</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E36" s="2">
         <v>44873</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>2022</v>
@@ -1454,21 +1610,24 @@
         <v>24000</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2">
         <v>44895</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>2023</v>
@@ -1477,21 +1636,21 @@
         <v>32723</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E38" s="2">
         <v>44956</v>
       </c>
-      <c r="F38" t="s">
-        <v>68</v>
-      </c>
       <c r="H38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>2023</v>
@@ -1500,21 +1659,21 @@
         <v>32046.79</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E39" s="2">
         <v>45043</v>
       </c>
-      <c r="F39" t="s">
-        <v>69</v>
-      </c>
       <c r="H39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>2023</v>
@@ -1523,16 +1682,108 @@
         <v>30453</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E40" s="2">
         <v>45070</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41">
+        <v>2023</v>
+      </c>
+      <c r="C41">
+        <v>23352</v>
+      </c>
+      <c r="D41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45090</v>
+      </c>
+      <c r="H41" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42">
+        <v>2023</v>
+      </c>
+      <c r="C42">
+        <v>32832</v>
+      </c>
+      <c r="D42" t="s">
         <v>64</v>
       </c>
-      <c r="H40" t="s">
-        <v>71</v>
+      <c r="E42" s="2">
+        <v>45092</v>
+      </c>
+      <c r="H42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43">
+        <v>2023</v>
+      </c>
+      <c r="C43">
+        <v>38576</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45114</v>
+      </c>
+      <c r="H43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44">
+        <v>2023</v>
+      </c>
+      <c r="C44">
+        <v>25546.77</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45103</v>
+      </c>
+      <c r="H44" t="s">
+        <v>85</v>
+      </c>
+      <c r="I44" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/20000-40000.xlsx
+++ b/20000-40000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="101">
   <si>
     <t>CVR</t>
   </si>
@@ -172,6 +172,36 @@
     <t>20039701</t>
   </si>
   <si>
+    <t>21699780</t>
+  </si>
+  <si>
+    <t>40881239</t>
+  </si>
+  <si>
+    <t>67437853</t>
+  </si>
+  <si>
+    <t>33738811</t>
+  </si>
+  <si>
+    <t>28155379</t>
+  </si>
+  <si>
+    <t>29186898</t>
+  </si>
+  <si>
+    <t>47252059</t>
+  </si>
+  <si>
+    <t>14364641</t>
+  </si>
+  <si>
+    <t>19764338</t>
+  </si>
+  <si>
+    <t>28979355</t>
+  </si>
+  <si>
     <t>Visma Løn og HR</t>
   </si>
   <si>
@@ -211,6 +241,9 @@
     <t>Automatisk Import</t>
   </si>
   <si>
+    <t>SKL SE</t>
+  </si>
+  <si>
     <t>Ikke oplyst</t>
   </si>
   <si>
@@ -244,6 +277,9 @@
     <t>DataLøn</t>
   </si>
   <si>
+    <t>ADP Celergo</t>
+  </si>
+  <si>
     <t>2021Q1</t>
   </si>
   <si>
@@ -275,6 +311,9 @@
   </si>
   <si>
     <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
   </si>
   <si>
     <t>20000-40000</t>
@@ -639,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,19 +724,19 @@
         <v>28895.99</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2">
         <v>44202</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -711,19 +750,19 @@
         <v>36113.01</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2">
         <v>44218</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -737,22 +776,22 @@
         <v>39790.38</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2">
         <v>44228</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -766,22 +805,22 @@
         <v>20969.32</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2">
         <v>44267</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -795,19 +834,19 @@
         <v>26744.54</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2">
         <v>44260</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -821,19 +860,19 @@
         <v>23323</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2">
         <v>44281</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -847,19 +886,19 @@
         <v>24096</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2">
         <v>44350</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -873,19 +912,19 @@
         <v>32894</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2">
         <v>44363</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -899,19 +938,19 @@
         <v>32673</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2">
         <v>44375</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -925,19 +964,19 @@
         <v>21226.54</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2">
         <v>44385</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -951,19 +990,19 @@
         <v>27360</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2">
         <v>44407</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -977,22 +1016,22 @@
         <v>21660</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2">
         <v>44440</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1006,19 +1045,19 @@
         <v>25140.84</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2">
         <v>44463</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1032,19 +1071,19 @@
         <v>30000</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2">
         <v>44454</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1058,19 +1097,19 @@
         <v>36348</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2">
         <v>44463</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1084,19 +1123,19 @@
         <v>36000</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2">
         <v>44438</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1110,19 +1149,19 @@
         <v>30320</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E18" s="2">
         <v>44483</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1136,19 +1175,19 @@
         <v>35463.96</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2">
         <v>44498</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1162,22 +1201,22 @@
         <v>21375.84</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2">
         <v>44505</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1191,19 +1230,19 @@
         <v>33761</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E21" s="2">
         <v>44545</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1217,19 +1256,19 @@
         <v>33034</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E22" s="2">
         <v>44498</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1243,19 +1282,19 @@
         <v>22438</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E23" s="2">
         <v>44546</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1269,19 +1308,19 @@
         <v>37004</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2">
         <v>44550</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1295,19 +1334,19 @@
         <v>32379.56</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E25" s="2">
         <v>44599</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1321,19 +1360,19 @@
         <v>27046.56</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E26" s="2">
         <v>44601</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I26" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1347,19 +1386,19 @@
         <v>26775.27</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2">
         <v>44609</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I27" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1373,19 +1412,19 @@
         <v>21714.47</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E28" s="2">
         <v>44615</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I28" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1399,19 +1438,19 @@
         <v>22255.93</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E29" s="2">
         <v>44620</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I29" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1425,19 +1464,19 @@
         <v>36000</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E30" s="2">
         <v>44732</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1451,19 +1490,19 @@
         <v>36000</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E31" s="2">
         <v>44742</v>
       </c>
       <c r="F31" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1477,22 +1516,22 @@
         <v>33339.71</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2">
         <v>44774</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I32" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1506,19 +1545,19 @@
         <v>24581</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E33" s="2">
         <v>44810</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I33" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1532,19 +1571,19 @@
         <v>31068</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E34" s="2">
         <v>44831</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I34" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1558,19 +1597,19 @@
         <v>30806</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E35" s="2">
         <v>44868</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I35" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1584,19 +1623,19 @@
         <v>20172</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E36" s="2">
         <v>44873</v>
       </c>
       <c r="F36" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I36" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1610,19 +1649,19 @@
         <v>24000</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E37" s="2">
         <v>44895</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I37" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1636,16 +1675,16 @@
         <v>32723</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E38" s="2">
         <v>44956</v>
       </c>
       <c r="H38" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I38" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1659,16 +1698,16 @@
         <v>32046.79</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E39" s="2">
         <v>45043</v>
       </c>
       <c r="H39" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I39" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1682,16 +1721,16 @@
         <v>30453</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E40" s="2">
         <v>45070</v>
       </c>
       <c r="H40" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I40" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1705,16 +1744,16 @@
         <v>23352</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2">
         <v>45090</v>
       </c>
       <c r="H41" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I41" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1728,16 +1767,16 @@
         <v>32832</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2">
         <v>45092</v>
       </c>
       <c r="H42" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I42" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1751,16 +1790,16 @@
         <v>38576</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E43" s="2">
         <v>45114</v>
       </c>
       <c r="H43" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I43" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1774,16 +1813,258 @@
         <v>25546.77</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E44" s="2">
         <v>45103</v>
       </c>
       <c r="H44" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45">
+        <v>2023</v>
+      </c>
+      <c r="C45">
+        <v>21650.08</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45182</v>
+      </c>
+      <c r="G45" t="s">
         <v>87</v>
+      </c>
+      <c r="H45" t="s">
+        <v>98</v>
+      </c>
+      <c r="I45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>28521.38</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45205</v>
+      </c>
+      <c r="G46" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" t="s">
+        <v>99</v>
+      </c>
+      <c r="I46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47">
+        <v>2023</v>
+      </c>
+      <c r="C47">
+        <v>30097</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45205</v>
+      </c>
+      <c r="G47" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" t="s">
+        <v>99</v>
+      </c>
+      <c r="I47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>2023</v>
+      </c>
+      <c r="C48">
+        <v>39408</v>
+      </c>
+      <c r="D48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45211</v>
+      </c>
+      <c r="H48" t="s">
+        <v>99</v>
+      </c>
+      <c r="I48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49">
+        <v>2023</v>
+      </c>
+      <c r="C49">
+        <v>20165</v>
+      </c>
+      <c r="D49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45239</v>
+      </c>
+      <c r="H49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>2023</v>
+      </c>
+      <c r="C50">
+        <v>23777</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45257</v>
+      </c>
+      <c r="H50" t="s">
+        <v>99</v>
+      </c>
+      <c r="I50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51">
+        <v>2023</v>
+      </c>
+      <c r="C51">
+        <v>31857</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45245</v>
+      </c>
+      <c r="H51" t="s">
+        <v>99</v>
+      </c>
+      <c r="I51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52">
+        <v>2023</v>
+      </c>
+      <c r="C52">
+        <v>22553</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45268</v>
+      </c>
+      <c r="G52" t="s">
+        <v>86</v>
+      </c>
+      <c r="H52" t="s">
+        <v>99</v>
+      </c>
+      <c r="I52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53">
+        <v>2023</v>
+      </c>
+      <c r="C53">
+        <v>24550</v>
+      </c>
+      <c r="D53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45281</v>
+      </c>
+      <c r="H53" t="s">
+        <v>99</v>
+      </c>
+      <c r="I53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54">
+        <v>2023</v>
+      </c>
+      <c r="C54">
+        <v>20119</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45289</v>
+      </c>
+      <c r="H54" t="s">
+        <v>99</v>
+      </c>
+      <c r="I54" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/20000-40000.xlsx
+++ b/20000-40000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="116">
   <si>
     <t>CVR</t>
   </si>
@@ -202,6 +202,36 @@
     <t>28979355</t>
   </si>
   <si>
+    <t>25227832</t>
+  </si>
+  <si>
+    <t>46481410</t>
+  </si>
+  <si>
+    <t>71133214</t>
+  </si>
+  <si>
+    <t>31943140</t>
+  </si>
+  <si>
+    <t>35388451</t>
+  </si>
+  <si>
+    <t>19691403</t>
+  </si>
+  <si>
+    <t>29414815</t>
+  </si>
+  <si>
+    <t>15504749</t>
+  </si>
+  <si>
+    <t>39427168</t>
+  </si>
+  <si>
+    <t>12316100</t>
+  </si>
+  <si>
     <t>Visma Løn og HR</t>
   </si>
   <si>
@@ -244,6 +274,9 @@
     <t>SKL SE</t>
   </si>
   <si>
+    <t>Kundeforhold</t>
+  </si>
+  <si>
     <t>Ikke oplyst</t>
   </si>
   <si>
@@ -280,6 +313,9 @@
     <t>ADP Celergo</t>
   </si>
   <si>
+    <t>Workday</t>
+  </si>
+  <si>
     <t>2021Q1</t>
   </si>
   <si>
@@ -314,6 +350,15 @@
   </si>
   <si>
     <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
   </si>
   <si>
     <t>20000-40000</t>
@@ -678,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,19 +769,19 @@
         <v>28895.99</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>44202</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -750,19 +795,19 @@
         <v>36113.01</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2">
         <v>44218</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -776,22 +821,22 @@
         <v>39790.38</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2">
         <v>44228</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -805,22 +850,22 @@
         <v>20969.32</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2">
         <v>44267</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -834,19 +879,19 @@
         <v>26744.54</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2">
         <v>44260</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -860,19 +905,19 @@
         <v>23323</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2">
         <v>44281</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -886,19 +931,19 @@
         <v>24096</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2">
         <v>44350</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -912,19 +957,19 @@
         <v>32894</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2">
         <v>44363</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -938,19 +983,19 @@
         <v>32673</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2">
         <v>44375</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -964,19 +1009,19 @@
         <v>21226.54</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2">
         <v>44385</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -990,19 +1035,19 @@
         <v>27360</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2">
         <v>44407</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1016,22 +1061,22 @@
         <v>21660</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2">
         <v>44440</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I13" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1045,19 +1090,19 @@
         <v>25140.84</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2">
         <v>44463</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I14" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1071,19 +1116,19 @@
         <v>30000</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2">
         <v>44454</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I15" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1097,19 +1142,19 @@
         <v>36348</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2">
         <v>44463</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I16" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1123,19 +1168,19 @@
         <v>36000</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2">
         <v>44438</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H17" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I17" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1149,19 +1194,19 @@
         <v>30320</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2">
         <v>44483</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I18" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1175,19 +1220,19 @@
         <v>35463.96</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2">
         <v>44498</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I19" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1201,22 +1246,22 @@
         <v>21375.84</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2">
         <v>44505</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I20" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1230,19 +1275,19 @@
         <v>33761</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2">
         <v>44545</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I21" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1256,19 +1301,19 @@
         <v>33034</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2">
         <v>44498</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I22" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1282,19 +1327,19 @@
         <v>22438</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E23" s="2">
         <v>44546</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I23" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1308,19 +1353,19 @@
         <v>37004</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2">
         <v>44550</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I24" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1334,19 +1379,19 @@
         <v>32379.56</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2">
         <v>44599</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="I25" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1360,19 +1405,19 @@
         <v>27046.56</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2">
         <v>44601</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="I26" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1386,19 +1431,19 @@
         <v>26775.27</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E27" s="2">
         <v>44609</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H27" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="I27" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1412,19 +1457,19 @@
         <v>21714.47</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E28" s="2">
         <v>44615</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="I28" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1438,19 +1483,19 @@
         <v>22255.93</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E29" s="2">
         <v>44620</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="I29" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1464,19 +1509,19 @@
         <v>36000</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2">
         <v>44732</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H30" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="I30" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1490,19 +1535,19 @@
         <v>36000</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E31" s="2">
         <v>44742</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H31" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="I31" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1516,22 +1561,22 @@
         <v>33339.71</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E32" s="2">
         <v>44774</v>
       </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H32" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="I32" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1545,19 +1590,19 @@
         <v>24581</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E33" s="2">
         <v>44810</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="I33" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1571,19 +1616,19 @@
         <v>31068</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2">
         <v>44831</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="I34" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1597,19 +1642,19 @@
         <v>30806</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2">
         <v>44868</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="I35" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1623,19 +1668,19 @@
         <v>20172</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E36" s="2">
         <v>44873</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="I36" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1649,19 +1694,19 @@
         <v>24000</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E37" s="2">
         <v>44895</v>
       </c>
       <c r="F37" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H37" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="I37" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1675,16 +1720,16 @@
         <v>32723</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E38" s="2">
         <v>44956</v>
       </c>
       <c r="H38" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="I38" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1698,16 +1743,16 @@
         <v>32046.79</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2">
         <v>45043</v>
       </c>
       <c r="H39" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="I39" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1721,16 +1766,16 @@
         <v>30453</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E40" s="2">
         <v>45070</v>
       </c>
       <c r="H40" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="I40" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1744,16 +1789,16 @@
         <v>23352</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2">
         <v>45090</v>
       </c>
       <c r="H41" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="I41" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1767,16 +1812,16 @@
         <v>32832</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2">
         <v>45092</v>
       </c>
       <c r="H42" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="I42" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1790,16 +1835,16 @@
         <v>38576</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E43" s="2">
         <v>45114</v>
       </c>
       <c r="H43" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="I43" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1813,16 +1858,16 @@
         <v>25546.77</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2">
         <v>45103</v>
       </c>
       <c r="H44" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="I44" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1836,19 +1881,19 @@
         <v>21650.08</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E45" s="2">
         <v>45182</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="H45" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="I45" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1862,19 +1907,19 @@
         <v>28521.38</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2">
         <v>45205</v>
       </c>
       <c r="G46" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H46" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I46" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1888,19 +1933,19 @@
         <v>30097</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2">
         <v>45205</v>
       </c>
       <c r="G47" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H47" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I47" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1914,16 +1959,16 @@
         <v>39408</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2">
         <v>45211</v>
       </c>
       <c r="H48" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I48" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1937,16 +1982,16 @@
         <v>20165</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2">
         <v>45239</v>
       </c>
       <c r="H49" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I49" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1960,16 +2005,16 @@
         <v>23777</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E50" s="2">
         <v>45257</v>
       </c>
       <c r="H50" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I50" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1983,16 +2028,16 @@
         <v>31857</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E51" s="2">
         <v>45245</v>
       </c>
       <c r="H51" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I51" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2006,19 +2051,19 @@
         <v>22553</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E52" s="2">
         <v>45268</v>
       </c>
       <c r="G52" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H52" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I52" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2032,16 +2077,16 @@
         <v>24550</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2">
         <v>45281</v>
       </c>
       <c r="H53" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I53" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2055,16 +2100,258 @@
         <v>20119</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E54" s="2">
         <v>45289</v>
       </c>
       <c r="H54" t="s">
+        <v>111</v>
+      </c>
+      <c r="I54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55">
+        <v>2024</v>
+      </c>
+      <c r="C55">
+        <v>32083.08</v>
+      </c>
+      <c r="D55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45359</v>
+      </c>
+      <c r="H55" t="s">
+        <v>112</v>
+      </c>
+      <c r="I55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56">
+        <v>2024</v>
+      </c>
+      <c r="C56">
+        <v>33984</v>
+      </c>
+      <c r="D56" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45446</v>
+      </c>
+      <c r="H56" t="s">
+        <v>113</v>
+      </c>
+      <c r="I56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57">
+        <v>2024</v>
+      </c>
+      <c r="C57">
+        <v>25747.01</v>
+      </c>
+      <c r="D57" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45420</v>
+      </c>
+      <c r="G57" t="s">
+        <v>97</v>
+      </c>
+      <c r="H57" t="s">
+        <v>113</v>
+      </c>
+      <c r="I57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58">
+        <v>2024</v>
+      </c>
+      <c r="C58">
+        <v>31550</v>
+      </c>
+      <c r="D58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45232</v>
+      </c>
+      <c r="H58" t="s">
+        <v>111</v>
+      </c>
+      <c r="I58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59">
+        <v>2024</v>
+      </c>
+      <c r="C59">
+        <v>29760</v>
+      </c>
+      <c r="D59" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45429</v>
+      </c>
+      <c r="G59" t="s">
+        <v>97</v>
+      </c>
+      <c r="H59" t="s">
+        <v>113</v>
+      </c>
+      <c r="I59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60">
+        <v>2024</v>
+      </c>
+      <c r="C60">
+        <v>21012</v>
+      </c>
+      <c r="D60" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45448</v>
+      </c>
+      <c r="H60" t="s">
+        <v>113</v>
+      </c>
+      <c r="I60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61">
+        <v>2024</v>
+      </c>
+      <c r="C61">
+        <v>37272</v>
+      </c>
+      <c r="D61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45453</v>
+      </c>
+      <c r="H61" t="s">
+        <v>113</v>
+      </c>
+      <c r="I61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62">
+        <v>2024</v>
+      </c>
+      <c r="C62">
+        <v>20388</v>
+      </c>
+      <c r="D62" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45456</v>
+      </c>
+      <c r="H62" t="s">
+        <v>113</v>
+      </c>
+      <c r="I62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63">
+        <v>2024</v>
+      </c>
+      <c r="C63">
+        <v>31956</v>
+      </c>
+      <c r="D63" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45534</v>
+      </c>
+      <c r="G63" t="s">
         <v>99</v>
       </c>
-      <c r="I54" t="s">
-        <v>100</v>
+      <c r="H63" t="s">
+        <v>114</v>
+      </c>
+      <c r="I63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64">
+        <v>2024</v>
+      </c>
+      <c r="C64">
+        <v>24988</v>
+      </c>
+      <c r="D64" t="s">
+        <v>74</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45559</v>
+      </c>
+      <c r="G64" t="s">
+        <v>97</v>
+      </c>
+      <c r="H64" t="s">
+        <v>114</v>
+      </c>
+      <c r="I64" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/20000-40000.xlsx
+++ b/20000-40000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="130">
   <si>
     <t>CVR</t>
   </si>
@@ -43,6 +43,9 @@
     <t>TCV_range</t>
   </si>
   <si>
+    <t>-2147483648</t>
+  </si>
+  <si>
     <t>26042925</t>
   </si>
   <si>
@@ -151,9 +154,18 @@
     <t>16092045</t>
   </si>
   <si>
+    <t>869150543</t>
+  </si>
+  <si>
     <t>42268992</t>
   </si>
   <si>
+    <t>869147688</t>
+  </si>
+  <si>
+    <t>1270523283</t>
+  </si>
+  <si>
     <t>82647511</t>
   </si>
   <si>
@@ -184,6 +196,9 @@
     <t>33738811</t>
   </si>
   <si>
+    <t>922733147</t>
+  </si>
+  <si>
     <t>28155379</t>
   </si>
   <si>
@@ -193,6 +208,9 @@
     <t>47252059</t>
   </si>
   <si>
+    <t>725777629</t>
+  </si>
+  <si>
     <t>14364641</t>
   </si>
   <si>
@@ -205,6 +223,9 @@
     <t>25227832</t>
   </si>
   <si>
+    <t>1298393134</t>
+  </si>
+  <si>
     <t>46481410</t>
   </si>
   <si>
@@ -217,6 +238,9 @@
     <t>35388451</t>
   </si>
   <si>
+    <t>869126304</t>
+  </si>
+  <si>
     <t>19691403</t>
   </si>
   <si>
@@ -226,12 +250,18 @@
     <t>15504749</t>
   </si>
   <si>
+    <t>1274440826</t>
+  </si>
+  <si>
     <t>39427168</t>
   </si>
   <si>
     <t>12316100</t>
   </si>
   <si>
+    <t>SKL SE</t>
+  </si>
+  <si>
     <t>Visma Løn og HR</t>
   </si>
   <si>
@@ -271,9 +301,6 @@
     <t>Automatisk Import</t>
   </si>
   <si>
-    <t>SKL SE</t>
-  </si>
-  <si>
     <t>Kundeforhold</t>
   </si>
   <si>
@@ -286,31 +313,46 @@
     <t>Pris</t>
   </si>
   <si>
+    <t>Strategisk beslutning</t>
+  </si>
+  <si>
+    <t>Opsagt hos partner</t>
+  </si>
+  <si>
+    <t>Outsourcing af lønnen (anden leverandør)</t>
+  </si>
+  <si>
     <t>Covid-19</t>
   </si>
   <si>
     <t>Bruger ikke produktet</t>
   </si>
   <si>
+    <t>Anden årsag (angiv hvilken i bemærkninger)</t>
+  </si>
+  <si>
     <t>Virksomheden lukker</t>
   </si>
   <si>
-    <t>Anden årsag (angiv hvilken i bemærkninger)</t>
-  </si>
-  <si>
     <t>Systemet (uddyb i bemærkninger)</t>
   </si>
   <si>
-    <t>Strategisk beslutning</t>
-  </si>
-  <si>
     <t>Utilfredshed (Service - uddyb i bemærkninger)</t>
   </si>
   <si>
     <t>DataLøn</t>
   </si>
   <si>
+    <t>Azets</t>
+  </si>
+  <si>
+    <t>BDO</t>
+  </si>
+  <si>
     <t>ADP Celergo</t>
+  </si>
+  <si>
+    <t>Payap</t>
   </si>
   <si>
     <t>Workday</t>
@@ -723,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -766,22 +808,22 @@
         <v>2021</v>
       </c>
       <c r="C2">
-        <v>28895.99</v>
+        <v>30513.26</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2">
-        <v>44202</v>
+        <v>44216</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -792,22 +834,22 @@
         <v>2021</v>
       </c>
       <c r="C3">
-        <v>36113.01</v>
+        <v>28895.99</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2">
-        <v>44218</v>
+        <v>44202</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -818,25 +860,22 @@
         <v>2021</v>
       </c>
       <c r="C4">
-        <v>39790.38</v>
+        <v>36113.01</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2">
-        <v>44228</v>
+        <v>44218</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" t="s">
         <v>97</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -847,1511 +886,1985 @@
         <v>2021</v>
       </c>
       <c r="C5">
-        <v>20969.32</v>
+        <v>39790.38</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2">
-        <v>44267</v>
+        <v>44228</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="H5" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>2021</v>
       </c>
       <c r="C6">
-        <v>26744.54</v>
+        <v>33865</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2">
-        <v>44260</v>
+        <v>44235</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
+        <v>109</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2021</v>
       </c>
       <c r="C7">
-        <v>23323</v>
+        <v>33865</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2">
-        <v>44281</v>
+        <v>44235</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>109</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>2021</v>
       </c>
       <c r="C8">
-        <v>24096</v>
+        <v>34478</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2">
-        <v>44350</v>
+        <v>44235</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>109</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>2021</v>
       </c>
       <c r="C9">
-        <v>32894</v>
+        <v>35072.02</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2">
-        <v>44363</v>
+        <v>44235</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>109</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>2021</v>
       </c>
       <c r="C10">
-        <v>32673</v>
+        <v>38161</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2">
-        <v>44375</v>
+        <v>44235</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>109</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2021</v>
       </c>
       <c r="C11">
-        <v>21226.54</v>
+        <v>36304</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>2021</v>
       </c>
       <c r="C12">
-        <v>27360</v>
+        <v>20969.32</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2">
-        <v>44407</v>
+        <v>44267</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>98</v>
+      </c>
+      <c r="G12" t="s">
+        <v>108</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>2021</v>
       </c>
       <c r="C13">
-        <v>21660</v>
+        <v>26744.54</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E13" s="2">
-        <v>44440</v>
+        <v>44260</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H13" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>2021</v>
       </c>
       <c r="C14">
-        <v>25140.84</v>
+        <v>33517.9</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2">
-        <v>44463</v>
+        <v>44273</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>101</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
       </c>
       <c r="H14" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>30000</v>
+        <v>23323</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2">
-        <v>44454</v>
+        <v>44281</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="I15" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>2021</v>
       </c>
       <c r="C16">
-        <v>36348</v>
+        <v>33486.48</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2">
-        <v>44463</v>
+        <v>44343</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="I16" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>2021</v>
       </c>
       <c r="C17">
-        <v>36000</v>
+        <v>24096</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2">
-        <v>44438</v>
+        <v>44350</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="H17" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="I17" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>2021</v>
       </c>
       <c r="C18">
-        <v>30320</v>
+        <v>32894</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E18" s="2">
-        <v>44483</v>
+        <v>44363</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H18" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="I18" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>2021</v>
       </c>
       <c r="C19">
-        <v>35463.96</v>
+        <v>30060</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2">
-        <v>44498</v>
+        <v>44368</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="I19" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>2021</v>
       </c>
       <c r="C20">
-        <v>21375.84</v>
+        <v>32673</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E20" s="2">
-        <v>44505</v>
+        <v>44375</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H20" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="I20" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>2021</v>
       </c>
       <c r="C21">
-        <v>33761</v>
+        <v>21226.54</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2">
-        <v>44545</v>
-      </c>
-      <c r="G21" t="s">
-        <v>97</v>
+        <v>44385</v>
+      </c>
+      <c r="F21" t="s">
+        <v>96</v>
       </c>
       <c r="H21" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="I21" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>2021</v>
       </c>
       <c r="C22">
-        <v>33034</v>
+        <v>27360</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E22" s="2">
-        <v>44498</v>
+        <v>44407</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="H22" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="I22" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>2021</v>
       </c>
       <c r="C23">
-        <v>22438</v>
+        <v>21660</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E23" s="2">
-        <v>44546</v>
+        <v>44440</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>104</v>
+      </c>
+      <c r="G23" t="s">
+        <v>108</v>
       </c>
       <c r="H23" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="I23" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>2021</v>
       </c>
       <c r="C24">
-        <v>37004</v>
+        <v>25140.84</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E24" s="2">
-        <v>44550</v>
+        <v>44463</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H24" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="I24" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C25">
-        <v>32379.56</v>
+        <v>30000</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E25" s="2">
-        <v>44599</v>
+        <v>44454</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H25" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="I25" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C26">
-        <v>27046.56</v>
+        <v>36348</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2">
-        <v>44601</v>
+        <v>44463</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="H26" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="I26" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C27">
-        <v>26775.27</v>
+        <v>36000</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E27" s="2">
-        <v>44609</v>
+        <v>44438</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H27" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="I27" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C28">
-        <v>21714.47</v>
+        <v>30320</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E28" s="2">
-        <v>44615</v>
+        <v>44483</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H28" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="I28" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C29">
-        <v>22255.93</v>
+        <v>35463.96</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E29" s="2">
-        <v>44620</v>
+        <v>44498</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="H29" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="I29" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C30">
-        <v>36000</v>
+        <v>21375.84</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E30" s="2">
-        <v>44732</v>
+        <v>44505</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="G30" t="s">
+        <v>108</v>
       </c>
       <c r="H30" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="I30" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C31">
-        <v>36000</v>
+        <v>33761</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E31" s="2">
-        <v>44742</v>
-      </c>
-      <c r="F31" t="s">
-        <v>95</v>
+        <v>44545</v>
+      </c>
+      <c r="G31" t="s">
+        <v>108</v>
       </c>
       <c r="H31" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="I31" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C32">
-        <v>33339.71</v>
+        <v>33034</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E32" s="2">
-        <v>44774</v>
+        <v>44498</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H32" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I32" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C33">
-        <v>24581</v>
+        <v>22438</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E33" s="2">
-        <v>44810</v>
+        <v>44546</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H33" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I33" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>31068</v>
+        <v>37004</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E34" s="2">
-        <v>44831</v>
+        <v>44550</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="H34" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I34" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>2022</v>
       </c>
       <c r="C35">
-        <v>30806</v>
+        <v>32379.56</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E35" s="2">
-        <v>44868</v>
+        <v>44599</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H35" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="I35" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>2022</v>
       </c>
       <c r="C36">
-        <v>20172</v>
+        <v>27046.56</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2">
-        <v>44873</v>
+        <v>44601</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H36" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="I36" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>2022</v>
       </c>
       <c r="C37">
-        <v>24000</v>
+        <v>26775.27</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2">
-        <v>44895</v>
+        <v>44609</v>
       </c>
       <c r="F37" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="H37" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="I37" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C38">
-        <v>32723</v>
+        <v>21714.47</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2">
-        <v>44956</v>
+        <v>44615</v>
+      </c>
+      <c r="F38" t="s">
+        <v>105</v>
       </c>
       <c r="H38" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="I38" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C39">
-        <v>32046.79</v>
+        <v>22255.93</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2">
-        <v>45043</v>
+        <v>44620</v>
+      </c>
+      <c r="F39" t="s">
+        <v>104</v>
       </c>
       <c r="H39" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="I39" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C40">
-        <v>30453</v>
+        <v>36000</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2">
-        <v>45070</v>
+        <v>44732</v>
+      </c>
+      <c r="F40" t="s">
+        <v>106</v>
       </c>
       <c r="H40" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="I40" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C41">
-        <v>23352</v>
+        <v>36000</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2">
-        <v>45090</v>
+        <v>44742</v>
+      </c>
+      <c r="F41" t="s">
+        <v>99</v>
       </c>
       <c r="H41" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="I41" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C42">
-        <v>32832</v>
+        <v>33339.71</v>
       </c>
       <c r="D42" t="s">
         <v>84</v>
       </c>
       <c r="E42" s="2">
-        <v>45092</v>
+        <v>44774</v>
+      </c>
+      <c r="F42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" t="s">
+        <v>108</v>
       </c>
       <c r="H42" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="I42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C43">
-        <v>38576</v>
+        <v>24581</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2">
-        <v>45114</v>
+        <v>44810</v>
+      </c>
+      <c r="F43" t="s">
+        <v>96</v>
       </c>
       <c r="H43" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I43" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C44">
-        <v>25546.77</v>
+        <v>31068</v>
       </c>
       <c r="D44" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2">
-        <v>45103</v>
+        <v>44831</v>
+      </c>
+      <c r="F44" t="s">
+        <v>96</v>
       </c>
       <c r="H44" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="I44" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C45">
-        <v>21650.08</v>
+        <v>30806</v>
       </c>
       <c r="D45" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2">
-        <v>45182</v>
-      </c>
-      <c r="G45" t="s">
-        <v>98</v>
+        <v>44868</v>
+      </c>
+      <c r="F45" t="s">
+        <v>96</v>
       </c>
       <c r="H45" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="I45" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C46">
-        <v>28521.38</v>
+        <v>20172</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2">
-        <v>45205</v>
-      </c>
-      <c r="G46" t="s">
-        <v>97</v>
+        <v>44873</v>
+      </c>
+      <c r="F46" t="s">
+        <v>103</v>
       </c>
       <c r="H46" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="I46" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C47">
-        <v>30097</v>
+        <v>24000</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2">
-        <v>45205</v>
-      </c>
-      <c r="G47" t="s">
-        <v>97</v>
+        <v>44895</v>
+      </c>
+      <c r="F47" t="s">
+        <v>107</v>
       </c>
       <c r="H47" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="I47" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>2023</v>
       </c>
       <c r="C48">
-        <v>39408</v>
+        <v>26321.24</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2">
-        <v>45211</v>
+        <v>44957</v>
       </c>
       <c r="H48" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="I48" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>2023</v>
       </c>
       <c r="C49">
-        <v>20165</v>
+        <v>32723</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2">
-        <v>45239</v>
+        <v>44956</v>
       </c>
       <c r="H49" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="I49" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>2023</v>
       </c>
       <c r="C50">
-        <v>23777</v>
+        <v>31122</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2">
-        <v>45257</v>
+        <v>44953</v>
       </c>
       <c r="H50" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="I50" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>2023</v>
       </c>
       <c r="C51">
-        <v>31857</v>
+        <v>35483</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2">
-        <v>45245</v>
+        <v>44953</v>
       </c>
       <c r="H51" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="I51" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>2023</v>
       </c>
       <c r="C52">
-        <v>22553</v>
+        <v>32046.79</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2">
-        <v>45268</v>
-      </c>
-      <c r="G52" t="s">
-        <v>97</v>
+        <v>45043</v>
       </c>
       <c r="H52" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="I52" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>2023</v>
       </c>
       <c r="C53">
-        <v>24550</v>
+        <v>30453</v>
       </c>
       <c r="D53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2">
-        <v>45281</v>
+        <v>45070</v>
       </c>
       <c r="H53" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="I53" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>2023</v>
       </c>
       <c r="C54">
-        <v>20119</v>
+        <v>23352</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2">
-        <v>45289</v>
+        <v>45090</v>
       </c>
       <c r="H54" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="I54" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C55">
-        <v>32083.08</v>
+        <v>32832</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2">
-        <v>45359</v>
+        <v>45092</v>
       </c>
       <c r="H55" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="I55" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C56">
-        <v>33984</v>
+        <v>38576</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2">
-        <v>45446</v>
+        <v>45114</v>
       </c>
       <c r="H56" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="I56" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C57">
-        <v>25747.01</v>
+        <v>25546.77</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2">
-        <v>45420</v>
-      </c>
-      <c r="G57" t="s">
-        <v>97</v>
+        <v>45103</v>
       </c>
       <c r="H57" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="I57" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C58">
-        <v>31550</v>
+        <v>21650.08</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E58" s="2">
-        <v>45232</v>
+        <v>45182</v>
+      </c>
+      <c r="G58" t="s">
+        <v>111</v>
       </c>
       <c r="H58" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="I58" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C59">
-        <v>29760</v>
+        <v>28521.38</v>
       </c>
       <c r="D59" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2">
-        <v>45429</v>
+        <v>45205</v>
       </c>
       <c r="G59" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="H59" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="I59" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C60">
-        <v>21012</v>
+        <v>30097</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E60" s="2">
-        <v>45448</v>
+        <v>45205</v>
+      </c>
+      <c r="G60" t="s">
+        <v>108</v>
       </c>
       <c r="H60" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="I60" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C61">
-        <v>37272</v>
+        <v>39408</v>
       </c>
       <c r="D61" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2">
-        <v>45453</v>
+        <v>45211</v>
       </c>
       <c r="H61" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="I61" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C62">
-        <v>20388</v>
+        <v>20783.82</v>
       </c>
       <c r="D62" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2">
-        <v>45456</v>
+        <v>45236</v>
+      </c>
+      <c r="G62" t="s">
+        <v>109</v>
       </c>
       <c r="H62" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="I62" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C63">
-        <v>31956</v>
+        <v>20165</v>
       </c>
       <c r="D63" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E63" s="2">
-        <v>45534</v>
-      </c>
-      <c r="G63" t="s">
-        <v>99</v>
+        <v>45239</v>
       </c>
       <c r="H63" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="I63" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>2023</v>
+      </c>
+      <c r="C64">
+        <v>23777</v>
+      </c>
+      <c r="D64" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45257</v>
+      </c>
+      <c r="H64" t="s">
+        <v>125</v>
+      </c>
+      <c r="I64" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>2023</v>
+      </c>
+      <c r="C65">
+        <v>31857</v>
+      </c>
+      <c r="D65" t="s">
+        <v>84</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45245</v>
+      </c>
+      <c r="H65" t="s">
+        <v>125</v>
+      </c>
+      <c r="I65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>2023</v>
+      </c>
+      <c r="C66">
+        <v>23375</v>
+      </c>
+      <c r="D66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45275</v>
+      </c>
+      <c r="G66" t="s">
+        <v>109</v>
+      </c>
+      <c r="H66" t="s">
+        <v>125</v>
+      </c>
+      <c r="I66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>2023</v>
+      </c>
+      <c r="C67">
+        <v>22553</v>
+      </c>
+      <c r="D67" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45268</v>
+      </c>
+      <c r="G67" t="s">
+        <v>108</v>
+      </c>
+      <c r="H67" t="s">
+        <v>125</v>
+      </c>
+      <c r="I67" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>2023</v>
+      </c>
+      <c r="C68">
+        <v>24550</v>
+      </c>
+      <c r="D68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45281</v>
+      </c>
+      <c r="H68" t="s">
+        <v>125</v>
+      </c>
+      <c r="I68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>2023</v>
+      </c>
+      <c r="C69">
+        <v>20119</v>
+      </c>
+      <c r="D69" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45289</v>
+      </c>
+      <c r="H69" t="s">
+        <v>125</v>
+      </c>
+      <c r="I69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>2024</v>
+      </c>
+      <c r="C70">
+        <v>32083.08</v>
+      </c>
+      <c r="D70" t="s">
+        <v>84</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45359</v>
+      </c>
+      <c r="H70" t="s">
+        <v>126</v>
+      </c>
+      <c r="I70" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>2024</v>
+      </c>
+      <c r="C71">
+        <v>36672</v>
+      </c>
+      <c r="D71" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45293</v>
+      </c>
+      <c r="H71" t="s">
+        <v>126</v>
+      </c>
+      <c r="I71" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>2024</v>
+      </c>
+      <c r="C72">
+        <v>33984</v>
+      </c>
+      <c r="D72" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45446</v>
+      </c>
+      <c r="H72" t="s">
+        <v>127</v>
+      </c>
+      <c r="I72" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
         <v>71</v>
       </c>
-      <c r="B64">
+      <c r="B73">
         <v>2024</v>
       </c>
-      <c r="C64">
+      <c r="C73">
+        <v>25747.01</v>
+      </c>
+      <c r="D73" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45420</v>
+      </c>
+      <c r="G73" t="s">
+        <v>108</v>
+      </c>
+      <c r="H73" t="s">
+        <v>127</v>
+      </c>
+      <c r="I73" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>2024</v>
+      </c>
+      <c r="C74">
+        <v>31550</v>
+      </c>
+      <c r="D74" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45232</v>
+      </c>
+      <c r="H74" t="s">
+        <v>125</v>
+      </c>
+      <c r="I74" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>2024</v>
+      </c>
+      <c r="C75">
+        <v>29760</v>
+      </c>
+      <c r="D75" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45429</v>
+      </c>
+      <c r="G75" t="s">
+        <v>108</v>
+      </c>
+      <c r="H75" t="s">
+        <v>127</v>
+      </c>
+      <c r="I75" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>2024</v>
+      </c>
+      <c r="C76">
+        <v>25056</v>
+      </c>
+      <c r="D76" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45432</v>
+      </c>
+      <c r="G76" t="s">
+        <v>112</v>
+      </c>
+      <c r="H76" t="s">
+        <v>127</v>
+      </c>
+      <c r="I76" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>2024</v>
+      </c>
+      <c r="C77">
+        <v>21012</v>
+      </c>
+      <c r="D77" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45448</v>
+      </c>
+      <c r="H77" t="s">
+        <v>127</v>
+      </c>
+      <c r="I77" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>2024</v>
+      </c>
+      <c r="C78">
+        <v>37272</v>
+      </c>
+      <c r="D78" t="s">
+        <v>83</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45453</v>
+      </c>
+      <c r="H78" t="s">
+        <v>127</v>
+      </c>
+      <c r="I78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>2024</v>
+      </c>
+      <c r="C79">
+        <v>20388</v>
+      </c>
+      <c r="D79" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45456</v>
+      </c>
+      <c r="H79" t="s">
+        <v>127</v>
+      </c>
+      <c r="I79" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>2024</v>
+      </c>
+      <c r="C80">
+        <v>35004</v>
+      </c>
+      <c r="D80" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45467</v>
+      </c>
+      <c r="H80" t="s">
+        <v>127</v>
+      </c>
+      <c r="I80" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>2024</v>
+      </c>
+      <c r="C81">
+        <v>31956</v>
+      </c>
+      <c r="D81" t="s">
+        <v>83</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45534</v>
+      </c>
+      <c r="G81" t="s">
+        <v>113</v>
+      </c>
+      <c r="H81" t="s">
+        <v>128</v>
+      </c>
+      <c r="I81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>2024</v>
+      </c>
+      <c r="C82">
         <v>24988</v>
       </c>
-      <c r="D64" t="s">
-        <v>74</v>
-      </c>
-      <c r="E64" s="2">
+      <c r="D82" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" s="2">
         <v>45559</v>
       </c>
-      <c r="G64" t="s">
-        <v>97</v>
-      </c>
-      <c r="H64" t="s">
-        <v>114</v>
-      </c>
-      <c r="I64" t="s">
-        <v>115</v>
+      <c r="G82" t="s">
+        <v>108</v>
+      </c>
+      <c r="H82" t="s">
+        <v>128</v>
+      </c>
+      <c r="I82" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
